--- a/git.xlsx
+++ b/git.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\git test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DAC02-D848-4BDF-ACB4-94E199CCA958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE661A-A787-4FA2-AD54-C8D6239A5ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>远程库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git push -u origin master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,6 +741,22 @@
   </si>
   <si>
     <t>显示远程仓库信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">远程库
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Github)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,11 +874,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,8 +925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5213106" y="1417758"/>
-          <a:ext cx="1627056" cy="1688853"/>
+          <a:off x="5210279" y="1415409"/>
+          <a:ext cx="1626579" cy="1688176"/>
           <a:chOff x="5212003" y="1417760"/>
           <a:chExt cx="1627056" cy="2395901"/>
         </a:xfrm>
@@ -1364,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -1375,7 +1387,7 @@
     <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="11.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.796875" style="1" customWidth="1"/>
@@ -1399,8 +1411,8 @@
       <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>36</v>
+      <c r="F1" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1413,15 +1425,6 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -1438,8 +1441,8 @@
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>55</v>
+      <c r="G4" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
@@ -1449,6 +1452,15 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="131.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -1532,93 +1544,93 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
